--- a/www/IndicatorsPerCountry/Macedonia_GDPperCapita_TerritorialRef_1993_2012_CCode_807.xlsx
+++ b/www/IndicatorsPerCountry/Macedonia_GDPperCapita_TerritorialRef_1993_2012_CCode_807.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Macedonia_GDPperCapita_TerritorialRef_1993_2012_CCode_807.xlsx
+++ b/www/IndicatorsPerCountry/Macedonia_GDPperCapita_TerritorialRef_1993_2012_CCode_807.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1429.706194</t>
-  </si>
-  <si>
-    <t>1489.785413</t>
-  </si>
-  <si>
-    <t>1522.282115</t>
-  </si>
-  <si>
-    <t>1838.964639</t>
-  </si>
-  <si>
-    <t>1861.519926</t>
-  </si>
-  <si>
-    <t>2036.013049</t>
-  </si>
-  <si>
-    <t>2195.113088</t>
-  </si>
-  <si>
-    <t>2248.897579</t>
-  </si>
-  <si>
-    <t>2385.387272</t>
-  </si>
-  <si>
-    <t>2416.755668</t>
-  </si>
-  <si>
-    <t>2438.468125</t>
-  </si>
-  <si>
-    <t>2833.706528</t>
-  </si>
-  <si>
-    <t>3624.380474</t>
-  </si>
-  <si>
-    <t>3281.015272</t>
-  </si>
-  <si>
-    <t>3529.898192</t>
-  </si>
-  <si>
-    <t>3647.515811</t>
-  </si>
-  <si>
-    <t>3728.509616</t>
-  </si>
-  <si>
-    <t>4076.093189</t>
-  </si>
-  <si>
-    <t>4352.791183</t>
-  </si>
-  <si>
-    <t>4578.608002</t>
-  </si>
-  <si>
-    <t>4739.554529</t>
-  </si>
-  <si>
-    <t>4969.099175</t>
-  </si>
-  <si>
-    <t>5189.340487</t>
-  </si>
-  <si>
-    <t>5363.348499</t>
-  </si>
-  <si>
-    <t>5532.265675</t>
-  </si>
-  <si>
-    <t>5812.056583</t>
-  </si>
-  <si>
-    <t>6212.426582</t>
-  </si>
-  <si>
-    <t>6578.420365</t>
-  </si>
-  <si>
-    <t>6583.75763</t>
-  </si>
-  <si>
-    <t>6677.155893</t>
-  </si>
-  <si>
-    <t>6606.264765</t>
-  </si>
-  <si>
-    <t>6362.660417</t>
-  </si>
-  <si>
-    <t>6476.177005</t>
-  </si>
-  <si>
-    <t>6353.020956</t>
-  </si>
-  <si>
-    <t>6720.767892</t>
-  </si>
-  <si>
-    <t>6557.671783</t>
-  </si>
-  <si>
-    <t>6275.870142</t>
-  </si>
-  <si>
-    <t>6472.071461</t>
-  </si>
-  <si>
-    <t>5754.64643925</t>
-  </si>
-  <si>
-    <t>5362.08917096</t>
-  </si>
-  <si>
-    <t>4980.2575111</t>
-  </si>
-  <si>
-    <t>4584.12504001</t>
-  </si>
-  <si>
-    <t>4481.87423971</t>
-  </si>
-  <si>
-    <t>4410.37018356</t>
-  </si>
-  <si>
-    <t>4439.68684658</t>
-  </si>
-  <si>
-    <t>4481.15919915</t>
-  </si>
-  <si>
-    <t>4610.58154079</t>
-  </si>
-  <si>
-    <t>4790.05672173</t>
-  </si>
-  <si>
-    <t>4988.12295728</t>
-  </si>
-  <si>
-    <t>4747.15428804</t>
-  </si>
-  <si>
-    <t>4774.32582938</t>
-  </si>
-  <si>
-    <t>4897.31280597</t>
-  </si>
-  <si>
-    <t>5086.79855477</t>
-  </si>
-  <si>
-    <t>5287.009912</t>
-  </si>
-  <si>
-    <t>5440.02859217</t>
-  </si>
-  <si>
-    <t>5766.80212879</t>
-  </si>
-  <si>
-    <t>6055.14223523</t>
-  </si>
-  <si>
-    <t>5983.74678439</t>
-  </si>
-  <si>
-    <t>6141.0025579</t>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>2799</t>
+  </si>
+  <si>
+    <t>3062</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>3381</t>
+  </si>
+  <si>
+    <t>3586</t>
+  </si>
+  <si>
+    <t>3634</t>
+  </si>
+  <si>
+    <t>3666</t>
+  </si>
+  <si>
+    <t>4261</t>
+  </si>
+  <si>
+    <t>5450</t>
+  </si>
+  <si>
+    <t>4933</t>
+  </si>
+  <si>
+    <t>5308</t>
+  </si>
+  <si>
+    <t>5485</t>
+  </si>
+  <si>
+    <t>5606</t>
+  </si>
+  <si>
+    <t>6129</t>
+  </si>
+  <si>
+    <t>6545</t>
+  </si>
+  <si>
+    <t>6884</t>
+  </si>
+  <si>
+    <t>7127</t>
+  </si>
+  <si>
+    <t>7471</t>
+  </si>
+  <si>
+    <t>7803</t>
+  </si>
+  <si>
+    <t>8064</t>
+  </si>
+  <si>
+    <t>8319</t>
+  </si>
+  <si>
+    <t>8738</t>
+  </si>
+  <si>
+    <t>9341</t>
+  </si>
+  <si>
+    <t>9891</t>
+  </si>
+  <si>
+    <t>9899</t>
+  </si>
+  <si>
+    <t>9937</t>
+  </si>
+  <si>
+    <t>9977</t>
+  </si>
+  <si>
+    <t>9728</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>10551</t>
+  </si>
+  <si>
+    <t>10385</t>
+  </si>
+  <si>
+    <t>10034</t>
+  </si>
+  <si>
+    <t>10206</t>
+  </si>
+  <si>
+    <t>9173</t>
+  </si>
+  <si>
+    <t>8615.7591441667</t>
+  </si>
+  <si>
+    <t>7991.59787179759</t>
+  </si>
+  <si>
+    <t>7317.83472374832</t>
+  </si>
+  <si>
+    <t>7154.06712135019</t>
+  </si>
+  <si>
+    <t>7039.11979881627</t>
+  </si>
+  <si>
+    <t>7095.16653678096</t>
+  </si>
+  <si>
+    <t>7179.02619761726</t>
+  </si>
+  <si>
+    <t>7411.54800495136</t>
+  </si>
+  <si>
+    <t>7732.04710320616</t>
+  </si>
+  <si>
+    <t>8083.78972481525</t>
+  </si>
+  <si>
+    <t>7835.02693452275</t>
+  </si>
+  <si>
+    <t>7964.07776566032</t>
+  </si>
+  <si>
+    <t>8160.41284762656</t>
+  </si>
+  <si>
+    <t>8561.38365472568</t>
+  </si>
+  <si>
+    <t>8984.54517600414</t>
+  </si>
+  <si>
+    <t>9466.26408739089</t>
+  </si>
+  <si>
+    <t>10099.4070442874</t>
+  </si>
+  <si>
+    <t>10674.2083593048</t>
+  </si>
+  <si>
+    <t>10657.8779394197</t>
+  </si>
+  <si>
+    <t>11038.289575824</t>
+  </si>
+  <si>
+    <t>11321</t>
+  </si>
+  <si>
+    <t>11242</t>
+  </si>
+  <si>
+    <t>11544</t>
+  </si>
+  <si>
+    <t>11937</t>
+  </si>
+  <si>
+    <t>12371</t>
+  </si>
+  <si>
+    <t>12644</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1335,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1452,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
